--- a/ProjectWork/src/test/resources/testdata/excel.xlsx
+++ b/ProjectWork/src/test/resources/testdata/excel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9addaeff96968dc8/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shibi\git\ProjectWork\ProjectWork\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{A0E28B84-34CC-4394-8AD3-0F4CC3D0C0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BC281A-2859-48F3-8655-1B627200DFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -34,6 +35,12 @@
   </si>
   <si>
     <t>admin@admin.com</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>london</t>
   </si>
 </sst>
 </file>
@@ -364,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -396,4 +403,29 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD00F748-3F45-4DBC-8B20-82C4ED3D1965}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>